--- a/Excel Cookbook/CH7_Array_Logic_Lookup.xlsx
+++ b/Excel Cookbook/CH7_Array_Logic_Lookup.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffi\BDSE36Data_Analysis\Excel Cookbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185ED982-0CEB-4FE2-8B09-AB64C0C73E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B685FD37-18B7-4E8A-AB96-F632994ACF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Unique" sheetId="1" r:id="rId1"/>
-    <sheet name="Sort" sheetId="2" r:id="rId2"/>
-    <sheet name="Filter" sheetId="3" r:id="rId3"/>
-    <sheet name="Array" sheetId="4" r:id="rId4"/>
-    <sheet name="If" sheetId="5" r:id="rId5"/>
-    <sheet name="AND OR" sheetId="6" r:id="rId6"/>
-    <sheet name="choose switch" sheetId="7" r:id="rId7"/>
-    <sheet name="Lookup" sheetId="8" r:id="rId8"/>
-    <sheet name="Match" sheetId="9" r:id="rId9"/>
-    <sheet name="Index" sheetId="10" r:id="rId10"/>
-    <sheet name="indirect" sheetId="11" r:id="rId11"/>
+    <sheet name="7.1 Unique" sheetId="1" r:id="rId1"/>
+    <sheet name="7.2 Sort" sheetId="2" r:id="rId2"/>
+    <sheet name="7.3 Filter" sheetId="3" r:id="rId3"/>
+    <sheet name="7.4 Array" sheetId="4" r:id="rId4"/>
+    <sheet name="7.5 If" sheetId="5" r:id="rId5"/>
+    <sheet name="7.6 AND OR" sheetId="6" r:id="rId6"/>
+    <sheet name="7.8 Choose Switch" sheetId="7" r:id="rId7"/>
+    <sheet name="7.9 Lookup" sheetId="8" r:id="rId8"/>
+    <sheet name="7.10 Match" sheetId="9" r:id="rId9"/>
+    <sheet name="7.11 Index" sheetId="10" r:id="rId10"/>
+    <sheet name="7.12 Indirect" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
